--- a/fileInput.xlsx
+++ b/fileInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\The Volt\script\excelAutomations\excileFileRandomization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52797B85-1D50-40F0-91AE-284D554ACEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFBC0E4-36F2-42B1-9B02-38BA7AF0A730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{202A378F-A8B3-4DF5-B0CD-0F2F39F94961}"/>
   </bookViews>
